--- a/Tokyo2020/Coaches.xlsx
+++ b/Tokyo2020/Coaches.xlsx
@@ -1,21 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prasert\Downloads\archive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9855DCAA-131B-4D5E-A76E-C7820BC581E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Details" sheetId="1" r:id="rId1"/>
+    <sheet name="Details" r:id="rId3" sheetId="1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -1411,10 +1403,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1426,7 +1419,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="darkGray"/>
     </fill>
   </fills>
   <borders count="1">
@@ -1444,328 +1437,18 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:D395"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1779,7 +1462,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1793,7 +1476,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1807,7 +1490,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1821,7 +1504,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1835,7 +1518,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1849,7 +1532,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1863,7 +1546,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1877,7 +1560,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1891,7 +1574,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -1905,7 +1588,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -1919,7 +1602,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -1933,7 +1616,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -1947,7 +1630,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -1961,7 +1644,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -1975,7 +1658,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -1989,7 +1672,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -2003,7 +1686,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -2017,7 +1700,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -2031,7 +1714,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20" t="s">
         <v>44</v>
       </c>
@@ -2045,7 +1728,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -2059,7 +1742,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22">
       <c r="A22" t="s">
         <v>48</v>
       </c>
@@ -2073,7 +1756,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23">
       <c r="A23" t="s">
         <v>51</v>
       </c>
@@ -2087,7 +1770,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24">
       <c r="A24" t="s">
         <v>53</v>
       </c>
@@ -2101,7 +1784,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -2115,7 +1798,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26">
       <c r="A26" t="s">
         <v>57</v>
       </c>
@@ -2129,7 +1812,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27">
       <c r="A27" t="s">
         <v>58</v>
       </c>
@@ -2143,7 +1826,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28">
       <c r="A28" t="s">
         <v>59</v>
       </c>
@@ -2157,7 +1840,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29">
       <c r="A29" t="s">
         <v>63</v>
       </c>
@@ -2171,7 +1854,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30">
       <c r="A30" t="s">
         <v>64</v>
       </c>
@@ -2185,7 +1868,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -2199,7 +1882,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32">
       <c r="A32" t="s">
         <v>67</v>
       </c>
@@ -2213,7 +1896,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33">
       <c r="A33" t="s">
         <v>69</v>
       </c>
@@ -2227,7 +1910,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34">
       <c r="A34" t="s">
         <v>70</v>
       </c>
@@ -2241,7 +1924,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35">
       <c r="A35" t="s">
         <v>72</v>
       </c>
@@ -2255,7 +1938,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36">
       <c r="A36" t="s">
         <v>74</v>
       </c>
@@ -2269,7 +1952,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37">
       <c r="A37" t="s">
         <v>77</v>
       </c>
@@ -2283,7 +1966,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38">
       <c r="A38" t="s">
         <v>79</v>
       </c>
@@ -2297,7 +1980,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39">
       <c r="A39" t="s">
         <v>81</v>
       </c>
@@ -2311,7 +1994,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40">
       <c r="A40" t="s">
         <v>83</v>
       </c>
@@ -2325,7 +2008,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41">
       <c r="A41" t="s">
         <v>84</v>
       </c>
@@ -2339,7 +2022,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42">
       <c r="A42" t="s">
         <v>86</v>
       </c>
@@ -2353,7 +2036,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43">
       <c r="A43" t="s">
         <v>87</v>
       </c>
@@ -2367,7 +2050,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44">
       <c r="A44" t="s">
         <v>88</v>
       </c>
@@ -2381,7 +2064,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45">
       <c r="A45" t="s">
         <v>89</v>
       </c>
@@ -2395,7 +2078,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46">
       <c r="A46" t="s">
         <v>91</v>
       </c>
@@ -2409,7 +2092,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47">
       <c r="A47" t="s">
         <v>93</v>
       </c>
@@ -2423,7 +2106,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48">
       <c r="A48" t="s">
         <v>94</v>
       </c>
@@ -2437,7 +2120,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49">
       <c r="A49" t="s">
         <v>95</v>
       </c>
@@ -2451,7 +2134,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50">
       <c r="A50" t="s">
         <v>96</v>
       </c>
@@ -2465,7 +2148,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51">
       <c r="A51" t="s">
         <v>97</v>
       </c>
@@ -2479,7 +2162,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52">
       <c r="A52" t="s">
         <v>98</v>
       </c>
@@ -2493,7 +2176,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53">
       <c r="A53" t="s">
         <v>99</v>
       </c>
@@ -2507,7 +2190,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54">
       <c r="A54" t="s">
         <v>100</v>
       </c>
@@ -2521,7 +2204,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55">
       <c r="A55" t="s">
         <v>102</v>
       </c>
@@ -2535,7 +2218,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56">
       <c r="A56" t="s">
         <v>103</v>
       </c>
@@ -2549,7 +2232,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57">
       <c r="A57" t="s">
         <v>105</v>
       </c>
@@ -2563,7 +2246,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58">
       <c r="A58" t="s">
         <v>106</v>
       </c>
@@ -2577,7 +2260,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59">
       <c r="A59" t="s">
         <v>106</v>
       </c>
@@ -2591,7 +2274,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60">
       <c r="A60" t="s">
         <v>108</v>
       </c>
@@ -2605,7 +2288,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61">
       <c r="A61" t="s">
         <v>108</v>
       </c>
@@ -2619,7 +2302,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62">
       <c r="A62" t="s">
         <v>110</v>
       </c>
@@ -2633,7 +2316,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63">
       <c r="A63" t="s">
         <v>112</v>
       </c>
@@ -2647,7 +2330,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64">
       <c r="A64" t="s">
         <v>115</v>
       </c>
@@ -2661,7 +2344,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65">
       <c r="A65" t="s">
         <v>116</v>
       </c>
@@ -2675,7 +2358,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66">
       <c r="A66" t="s">
         <v>117</v>
       </c>
@@ -2689,7 +2372,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67">
       <c r="A67" t="s">
         <v>119</v>
       </c>
@@ -2703,7 +2386,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68">
       <c r="A68" t="s">
         <v>121</v>
       </c>
@@ -2717,7 +2400,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69">
       <c r="A69" t="s">
         <v>122</v>
       </c>
@@ -2731,7 +2414,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70">
       <c r="A70" t="s">
         <v>124</v>
       </c>
@@ -2745,7 +2428,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71">
       <c r="A71" t="s">
         <v>126</v>
       </c>
@@ -2759,7 +2442,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72">
       <c r="A72" t="s">
         <v>127</v>
       </c>
@@ -2773,7 +2456,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73">
       <c r="A73" t="s">
         <v>129</v>
       </c>
@@ -2787,7 +2470,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74">
       <c r="A74" t="s">
         <v>130</v>
       </c>
@@ -2801,7 +2484,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75">
       <c r="A75" t="s">
         <v>131</v>
       </c>
@@ -2815,7 +2498,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76">
       <c r="A76" t="s">
         <v>132</v>
       </c>
@@ -2829,7 +2512,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77">
       <c r="A77" t="s">
         <v>133</v>
       </c>
@@ -2843,7 +2526,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78">
       <c r="A78" t="s">
         <v>135</v>
       </c>
@@ -2857,7 +2540,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79">
       <c r="A79" t="s">
         <v>136</v>
       </c>
@@ -2871,7 +2554,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80">
       <c r="A80" t="s">
         <v>137</v>
       </c>
@@ -2885,7 +2568,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81">
       <c r="A81" t="s">
         <v>138</v>
       </c>
@@ -2899,7 +2582,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82">
       <c r="A82" t="s">
         <v>140</v>
       </c>
@@ -2913,7 +2596,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83">
       <c r="A83" t="s">
         <v>141</v>
       </c>
@@ -2927,7 +2610,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84">
       <c r="A84" t="s">
         <v>143</v>
       </c>
@@ -2941,7 +2624,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85">
       <c r="A85" t="s">
         <v>144</v>
       </c>
@@ -2955,7 +2638,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86">
       <c r="A86" t="s">
         <v>145</v>
       </c>
@@ -2969,7 +2652,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87">
       <c r="A87" t="s">
         <v>146</v>
       </c>
@@ -2983,7 +2666,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88">
       <c r="A88" t="s">
         <v>148</v>
       </c>
@@ -2997,7 +2680,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89">
       <c r="A89" t="s">
         <v>149</v>
       </c>
@@ -3011,7 +2694,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90">
       <c r="A90" t="s">
         <v>151</v>
       </c>
@@ -3025,7 +2708,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91">
       <c r="A91" t="s">
         <v>152</v>
       </c>
@@ -3039,7 +2722,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92">
       <c r="A92" t="s">
         <v>153</v>
       </c>
@@ -3053,7 +2736,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93">
       <c r="A93" t="s">
         <v>154</v>
       </c>
@@ -3067,7 +2750,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94">
       <c r="A94" t="s">
         <v>155</v>
       </c>
@@ -3081,7 +2764,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95">
       <c r="A95" t="s">
         <v>155</v>
       </c>
@@ -3095,7 +2778,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96">
       <c r="A96" t="s">
         <v>156</v>
       </c>
@@ -3109,7 +2792,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97">
       <c r="A97" t="s">
         <v>157</v>
       </c>
@@ -3123,7 +2806,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98">
       <c r="A98" t="s">
         <v>158</v>
       </c>
@@ -3137,7 +2820,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99">
       <c r="A99" t="s">
         <v>159</v>
       </c>
@@ -3151,7 +2834,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100">
       <c r="A100" t="s">
         <v>160</v>
       </c>
@@ -3165,7 +2848,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101">
       <c r="A101" t="s">
         <v>162</v>
       </c>
@@ -3179,7 +2862,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102">
       <c r="A102" t="s">
         <v>163</v>
       </c>
@@ -3193,7 +2876,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103">
       <c r="A103" t="s">
         <v>164</v>
       </c>
@@ -3207,7 +2890,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104">
       <c r="A104" t="s">
         <v>166</v>
       </c>
@@ -3221,7 +2904,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105">
       <c r="A105" t="s">
         <v>166</v>
       </c>
@@ -3235,7 +2918,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106">
       <c r="A106" t="s">
         <v>167</v>
       </c>
@@ -3249,7 +2932,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107">
       <c r="A107" t="s">
         <v>168</v>
       </c>
@@ -3263,7 +2946,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108">
       <c r="A108" t="s">
         <v>169</v>
       </c>
@@ -3277,7 +2960,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109">
       <c r="A109" t="s">
         <v>171</v>
       </c>
@@ -3291,7 +2974,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110">
       <c r="A110" t="s">
         <v>172</v>
       </c>
@@ -3305,7 +2988,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111">
       <c r="A111" t="s">
         <v>173</v>
       </c>
@@ -3319,7 +3002,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112">
       <c r="A112" t="s">
         <v>174</v>
       </c>
@@ -3333,7 +3016,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113">
       <c r="A113" t="s">
         <v>175</v>
       </c>
@@ -3347,7 +3030,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114">
       <c r="A114" t="s">
         <v>176</v>
       </c>
@@ -3361,7 +3044,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115">
       <c r="A115" t="s">
         <v>177</v>
       </c>
@@ -3375,7 +3058,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116">
       <c r="A116" t="s">
         <v>178</v>
       </c>
@@ -3389,7 +3072,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117">
       <c r="A117" t="s">
         <v>179</v>
       </c>
@@ -3403,7 +3086,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118">
       <c r="A118" t="s">
         <v>179</v>
       </c>
@@ -3417,7 +3100,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119">
       <c r="A119" t="s">
         <v>180</v>
       </c>
@@ -3431,7 +3114,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120">
       <c r="A120" t="s">
         <v>181</v>
       </c>
@@ -3445,7 +3128,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121">
       <c r="A121" t="s">
         <v>182</v>
       </c>
@@ -3459,7 +3142,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122">
       <c r="A122" t="s">
         <v>183</v>
       </c>
@@ -3473,7 +3156,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123">
       <c r="A123" t="s">
         <v>184</v>
       </c>
@@ -3487,7 +3170,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124">
       <c r="A124" t="s">
         <v>185</v>
       </c>
@@ -3501,7 +3184,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125">
       <c r="A125" t="s">
         <v>186</v>
       </c>
@@ -3515,7 +3198,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126">
       <c r="A126" t="s">
         <v>187</v>
       </c>
@@ -3529,7 +3212,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127">
       <c r="A127" t="s">
         <v>188</v>
       </c>
@@ -3543,7 +3226,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128">
       <c r="A128" t="s">
         <v>190</v>
       </c>
@@ -3557,7 +3240,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129">
       <c r="A129" t="s">
         <v>190</v>
       </c>
@@ -3571,7 +3254,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130">
       <c r="A130" t="s">
         <v>191</v>
       </c>
@@ -3585,7 +3268,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131">
       <c r="A131" t="s">
         <v>192</v>
       </c>
@@ -3599,7 +3282,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132">
       <c r="A132" t="s">
         <v>194</v>
       </c>
@@ -3613,7 +3296,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133">
       <c r="A133" t="s">
         <v>195</v>
       </c>
@@ -3627,7 +3310,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134">
       <c r="A134" t="s">
         <v>197</v>
       </c>
@@ -3641,7 +3324,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135">
       <c r="A135" t="s">
         <v>198</v>
       </c>
@@ -3655,7 +3338,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136">
       <c r="A136" t="s">
         <v>199</v>
       </c>
@@ -3669,7 +3352,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137">
       <c r="A137" t="s">
         <v>200</v>
       </c>
@@ -3683,7 +3366,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138">
       <c r="A138" t="s">
         <v>201</v>
       </c>
@@ -3697,7 +3380,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139">
       <c r="A139" t="s">
         <v>202</v>
       </c>
@@ -3711,7 +3394,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140">
       <c r="A140" t="s">
         <v>203</v>
       </c>
@@ -3725,7 +3408,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141">
       <c r="A141" t="s">
         <v>204</v>
       </c>
@@ -3739,7 +3422,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142">
       <c r="A142" t="s">
         <v>205</v>
       </c>
@@ -3753,7 +3436,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143">
       <c r="A143" t="s">
         <v>206</v>
       </c>
@@ -3767,7 +3450,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144">
       <c r="A144" t="s">
         <v>207</v>
       </c>
@@ -3781,7 +3464,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145">
       <c r="A145" t="s">
         <v>208</v>
       </c>
@@ -3795,7 +3478,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146">
       <c r="A146" t="s">
         <v>208</v>
       </c>
@@ -3809,7 +3492,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147">
       <c r="A147" t="s">
         <v>209</v>
       </c>
@@ -3823,7 +3506,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148">
       <c r="A148" t="s">
         <v>211</v>
       </c>
@@ -3837,7 +3520,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149">
       <c r="A149" t="s">
         <v>212</v>
       </c>
@@ -3851,7 +3534,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150">
       <c r="A150" t="s">
         <v>213</v>
       </c>
@@ -3865,7 +3548,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151">
       <c r="A151" t="s">
         <v>214</v>
       </c>
@@ -3879,7 +3562,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152">
       <c r="A152" t="s">
         <v>215</v>
       </c>
@@ -3893,7 +3576,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153">
       <c r="A153" t="s">
         <v>216</v>
       </c>
@@ -3907,7 +3590,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154">
       <c r="A154" t="s">
         <v>218</v>
       </c>
@@ -3921,7 +3604,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155">
       <c r="A155" t="s">
         <v>219</v>
       </c>
@@ -3935,7 +3618,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156">
       <c r="A156" t="s">
         <v>220</v>
       </c>
@@ -3949,7 +3632,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157">
       <c r="A157" t="s">
         <v>221</v>
       </c>
@@ -3963,7 +3646,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158">
       <c r="A158" t="s">
         <v>222</v>
       </c>
@@ -3977,7 +3660,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159">
       <c r="A159" t="s">
         <v>223</v>
       </c>
@@ -3991,7 +3674,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160">
       <c r="A160" t="s">
         <v>224</v>
       </c>
@@ -4005,7 +3688,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161">
       <c r="A161" t="s">
         <v>225</v>
       </c>
@@ -4019,7 +3702,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162">
       <c r="A162" t="s">
         <v>227</v>
       </c>
@@ -4033,7 +3716,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163">
       <c r="A163" t="s">
         <v>228</v>
       </c>
@@ -4047,7 +3730,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164">
       <c r="A164" t="s">
         <v>229</v>
       </c>
@@ -4061,7 +3744,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165">
       <c r="A165" t="s">
         <v>230</v>
       </c>
@@ -4075,7 +3758,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166">
       <c r="A166" t="s">
         <v>231</v>
       </c>
@@ -4089,7 +3772,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167">
       <c r="A167" t="s">
         <v>232</v>
       </c>
@@ -4103,7 +3786,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168">
       <c r="A168" t="s">
         <v>233</v>
       </c>
@@ -4117,7 +3800,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169">
       <c r="A169" t="s">
         <v>234</v>
       </c>
@@ -4131,7 +3814,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170">
       <c r="A170" t="s">
         <v>235</v>
       </c>
@@ -4145,7 +3828,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171">
       <c r="A171" t="s">
         <v>236</v>
       </c>
@@ -4159,7 +3842,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172">
       <c r="A172" t="s">
         <v>237</v>
       </c>
@@ -4173,7 +3856,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173">
       <c r="A173" t="s">
         <v>238</v>
       </c>
@@ -4187,7 +3870,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174">
       <c r="A174" t="s">
         <v>239</v>
       </c>
@@ -4201,7 +3884,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175">
       <c r="A175" t="s">
         <v>240</v>
       </c>
@@ -4215,7 +3898,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176">
       <c r="A176" t="s">
         <v>241</v>
       </c>
@@ -4229,7 +3912,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177">
       <c r="A177" t="s">
         <v>242</v>
       </c>
@@ -4243,7 +3926,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178">
       <c r="A178" t="s">
         <v>243</v>
       </c>
@@ -4257,7 +3940,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179">
       <c r="A179" t="s">
         <v>244</v>
       </c>
@@ -4271,7 +3954,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180">
       <c r="A180" t="s">
         <v>245</v>
       </c>
@@ -4285,7 +3968,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181">
       <c r="A181" t="s">
         <v>246</v>
       </c>
@@ -4299,7 +3982,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182">
       <c r="A182" t="s">
         <v>247</v>
       </c>
@@ -4313,7 +3996,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183">
       <c r="A183" t="s">
         <v>248</v>
       </c>
@@ -4327,7 +4010,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184">
       <c r="A184" t="s">
         <v>249</v>
       </c>
@@ -4341,7 +4024,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185">
       <c r="A185" t="s">
         <v>250</v>
       </c>
@@ -4355,7 +4038,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186">
       <c r="A186" t="s">
         <v>251</v>
       </c>
@@ -4369,7 +4052,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187">
       <c r="A187" t="s">
         <v>252</v>
       </c>
@@ -4383,7 +4066,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188">
       <c r="A188" t="s">
         <v>253</v>
       </c>
@@ -4397,7 +4080,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189">
       <c r="A189" t="s">
         <v>254</v>
       </c>
@@ -4411,7 +4094,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190">
       <c r="A190" t="s">
         <v>256</v>
       </c>
@@ -4425,7 +4108,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191">
       <c r="A191" t="s">
         <v>257</v>
       </c>
@@ -4439,7 +4122,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192">
       <c r="A192" t="s">
         <v>258</v>
       </c>
@@ -4453,7 +4136,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193">
       <c r="A193" t="s">
         <v>259</v>
       </c>
@@ -4467,7 +4150,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194">
       <c r="A194" t="s">
         <v>260</v>
       </c>
@@ -4481,7 +4164,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195">
       <c r="A195" t="s">
         <v>261</v>
       </c>
@@ -4495,7 +4178,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196">
       <c r="A196" t="s">
         <v>262</v>
       </c>
@@ -4509,7 +4192,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197">
       <c r="A197" t="s">
         <v>263</v>
       </c>
@@ -4523,7 +4206,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198">
       <c r="A198" t="s">
         <v>264</v>
       </c>
@@ -4537,7 +4220,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199">
       <c r="A199" t="s">
         <v>265</v>
       </c>
@@ -4551,7 +4234,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200">
       <c r="A200" t="s">
         <v>266</v>
       </c>
@@ -4565,7 +4248,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201">
       <c r="A201" t="s">
         <v>267</v>
       </c>
@@ -4579,7 +4262,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202">
       <c r="A202" t="s">
         <v>268</v>
       </c>
@@ -4593,7 +4276,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203">
       <c r="A203" t="s">
         <v>269</v>
       </c>
@@ -4607,7 +4290,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204">
       <c r="A204" t="s">
         <v>270</v>
       </c>
@@ -4621,7 +4304,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205">
       <c r="A205" t="s">
         <v>271</v>
       </c>
@@ -4635,7 +4318,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206">
       <c r="A206" t="s">
         <v>272</v>
       </c>
@@ -4649,7 +4332,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207">
       <c r="A207" t="s">
         <v>274</v>
       </c>
@@ -4663,7 +4346,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208">
       <c r="A208" t="s">
         <v>275</v>
       </c>
@@ -4677,7 +4360,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209">
       <c r="A209" t="s">
         <v>276</v>
       </c>
@@ -4691,7 +4374,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210">
       <c r="A210" t="s">
         <v>277</v>
       </c>
@@ -4705,7 +4388,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211">
       <c r="A211" t="s">
         <v>278</v>
       </c>
@@ -4719,7 +4402,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212">
       <c r="A212" t="s">
         <v>279</v>
       </c>
@@ -4733,7 +4416,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213">
       <c r="A213" t="s">
         <v>280</v>
       </c>
@@ -4747,7 +4430,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214">
       <c r="A214" t="s">
         <v>281</v>
       </c>
@@ -4761,7 +4444,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215">
       <c r="A215" t="s">
         <v>282</v>
       </c>
@@ -4775,7 +4458,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216">
       <c r="A216" t="s">
         <v>283</v>
       </c>
@@ -4789,7 +4472,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217">
       <c r="A217" t="s">
         <v>284</v>
       </c>
@@ -4803,7 +4486,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218">
       <c r="A218" t="s">
         <v>285</v>
       </c>
@@ -4817,7 +4500,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219">
       <c r="A219" t="s">
         <v>286</v>
       </c>
@@ -4831,7 +4514,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220">
       <c r="A220" t="s">
         <v>287</v>
       </c>
@@ -4845,7 +4528,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221">
       <c r="A221" t="s">
         <v>288</v>
       </c>
@@ -4859,7 +4542,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222">
       <c r="A222" t="s">
         <v>289</v>
       </c>
@@ -4873,7 +4556,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223">
       <c r="A223" t="s">
         <v>290</v>
       </c>
@@ -4887,7 +4570,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224">
       <c r="A224" t="s">
         <v>291</v>
       </c>
@@ -4901,7 +4584,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225">
       <c r="A225" t="s">
         <v>292</v>
       </c>
@@ -4915,7 +4598,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226">
       <c r="A226" t="s">
         <v>293</v>
       </c>
@@ -4929,7 +4612,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227">
       <c r="A227" t="s">
         <v>294</v>
       </c>
@@ -4943,7 +4626,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228">
       <c r="A228" t="s">
         <v>295</v>
       </c>
@@ -4957,7 +4640,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229">
       <c r="A229" t="s">
         <v>296</v>
       </c>
@@ -4971,7 +4654,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230">
       <c r="A230" t="s">
         <v>297</v>
       </c>
@@ -4985,7 +4668,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231">
       <c r="A231" t="s">
         <v>298</v>
       </c>
@@ -4999,7 +4682,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232">
       <c r="A232" t="s">
         <v>299</v>
       </c>
@@ -5013,7 +4696,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233">
       <c r="A233" t="s">
         <v>300</v>
       </c>
@@ -5027,7 +4710,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234">
       <c r="A234" t="s">
         <v>301</v>
       </c>
@@ -5041,7 +4724,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235">
       <c r="A235" t="s">
         <v>302</v>
       </c>
@@ -5055,7 +4738,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236">
       <c r="A236" t="s">
         <v>303</v>
       </c>
@@ -5069,7 +4752,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237">
       <c r="A237" t="s">
         <v>304</v>
       </c>
@@ -5083,7 +4766,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238">
       <c r="A238" t="s">
         <v>305</v>
       </c>
@@ -5097,7 +4780,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239">
       <c r="A239" t="s">
         <v>306</v>
       </c>
@@ -5111,7 +4794,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240">
       <c r="A240" t="s">
         <v>307</v>
       </c>
@@ -5125,7 +4808,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241">
       <c r="A241" t="s">
         <v>308</v>
       </c>
@@ -5139,7 +4822,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242">
       <c r="A242" t="s">
         <v>309</v>
       </c>
@@ -5153,7 +4836,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243">
       <c r="A243" t="s">
         <v>310</v>
       </c>
@@ -5167,7 +4850,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244">
       <c r="A244" t="s">
         <v>311</v>
       </c>
@@ -5181,7 +4864,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245">
       <c r="A245" t="s">
         <v>312</v>
       </c>
@@ -5195,7 +4878,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246">
       <c r="A246" t="s">
         <v>313</v>
       </c>
@@ -5209,7 +4892,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247">
       <c r="A247" t="s">
         <v>314</v>
       </c>
@@ -5223,7 +4906,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248">
       <c r="A248" t="s">
         <v>315</v>
       </c>
@@ -5237,7 +4920,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249">
       <c r="A249" t="s">
         <v>316</v>
       </c>
@@ -5251,7 +4934,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250">
       <c r="A250" t="s">
         <v>317</v>
       </c>
@@ -5265,7 +4948,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251">
       <c r="A251" t="s">
         <v>318</v>
       </c>
@@ -5279,7 +4962,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252">
       <c r="A252" t="s">
         <v>319</v>
       </c>
@@ -5293,7 +4976,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253">
       <c r="A253" t="s">
         <v>320</v>
       </c>
@@ -5307,7 +4990,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254">
       <c r="A254" t="s">
         <v>321</v>
       </c>
@@ -5321,7 +5004,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255">
       <c r="A255" t="s">
         <v>322</v>
       </c>
@@ -5335,7 +5018,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256">
       <c r="A256" t="s">
         <v>323</v>
       </c>
@@ -5349,7 +5032,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257">
       <c r="A257" t="s">
         <v>324</v>
       </c>
@@ -5363,7 +5046,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258">
       <c r="A258" t="s">
         <v>325</v>
       </c>
@@ -5377,7 +5060,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259">
       <c r="A259" t="s">
         <v>326</v>
       </c>
@@ -5391,7 +5074,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260">
       <c r="A260" t="s">
         <v>327</v>
       </c>
@@ -5405,7 +5088,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261">
       <c r="A261" t="s">
         <v>328</v>
       </c>
@@ -5419,7 +5102,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262">
       <c r="A262" t="s">
         <v>329</v>
       </c>
@@ -5433,7 +5116,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263">
       <c r="A263" t="s">
         <v>330</v>
       </c>
@@ -5447,7 +5130,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264">
       <c r="A264" t="s">
         <v>331</v>
       </c>
@@ -5461,7 +5144,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265">
       <c r="A265" t="s">
         <v>331</v>
       </c>
@@ -5475,7 +5158,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266">
       <c r="A266" t="s">
         <v>332</v>
       </c>
@@ -5489,7 +5172,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="267">
       <c r="A267" t="s">
         <v>333</v>
       </c>
@@ -5503,7 +5186,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268">
       <c r="A268" t="s">
         <v>334</v>
       </c>
@@ -5517,7 +5200,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="269">
       <c r="A269" t="s">
         <v>335</v>
       </c>
@@ -5531,7 +5214,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="270">
       <c r="A270" t="s">
         <v>336</v>
       </c>
@@ -5545,7 +5228,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="271">
       <c r="A271" t="s">
         <v>337</v>
       </c>
@@ -5559,7 +5242,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="272">
       <c r="A272" t="s">
         <v>338</v>
       </c>
@@ -5573,7 +5256,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="273">
       <c r="A273" t="s">
         <v>339</v>
       </c>
@@ -5587,7 +5270,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274">
       <c r="A274" t="s">
         <v>340</v>
       </c>
@@ -5601,7 +5284,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="275">
       <c r="A275" t="s">
         <v>341</v>
       </c>
@@ -5615,7 +5298,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="276">
       <c r="A276" t="s">
         <v>342</v>
       </c>
@@ -5629,7 +5312,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="277">
       <c r="A277" t="s">
         <v>343</v>
       </c>
@@ -5643,7 +5326,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="278">
       <c r="A278" t="s">
         <v>344</v>
       </c>
@@ -5657,7 +5340,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="279">
       <c r="A279" t="s">
         <v>345</v>
       </c>
@@ -5671,7 +5354,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280">
       <c r="A280" t="s">
         <v>346</v>
       </c>
@@ -5685,7 +5368,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="281">
       <c r="A281" t="s">
         <v>347</v>
       </c>
@@ -5699,7 +5382,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="282">
       <c r="A282" t="s">
         <v>348</v>
       </c>
@@ -5713,7 +5396,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="283">
       <c r="A283" t="s">
         <v>349</v>
       </c>
@@ -5727,7 +5410,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="284">
       <c r="A284" t="s">
         <v>350</v>
       </c>
@@ -5741,7 +5424,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="285">
       <c r="A285" t="s">
         <v>351</v>
       </c>
@@ -5755,7 +5438,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="286">
       <c r="A286" t="s">
         <v>352</v>
       </c>
@@ -5769,7 +5452,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="287">
       <c r="A287" t="s">
         <v>353</v>
       </c>
@@ -5783,7 +5466,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="288">
       <c r="A288" t="s">
         <v>354</v>
       </c>
@@ -5797,7 +5480,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="289">
       <c r="A289" t="s">
         <v>355</v>
       </c>
@@ -5811,7 +5494,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="290">
       <c r="A290" t="s">
         <v>356</v>
       </c>
@@ -5825,7 +5508,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="291">
       <c r="A291" t="s">
         <v>357</v>
       </c>
@@ -5839,7 +5522,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="292">
       <c r="A292" t="s">
         <v>359</v>
       </c>
@@ -5853,7 +5536,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="293">
       <c r="A293" t="s">
         <v>360</v>
       </c>
@@ -5867,7 +5550,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="294">
       <c r="A294" t="s">
         <v>361</v>
       </c>
@@ -5881,7 +5564,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="295">
       <c r="A295" t="s">
         <v>362</v>
       </c>
@@ -5895,7 +5578,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="296">
       <c r="A296" t="s">
         <v>363</v>
       </c>
@@ -5909,7 +5592,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="297">
       <c r="A297" t="s">
         <v>364</v>
       </c>
@@ -5923,7 +5606,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="298">
       <c r="A298" t="s">
         <v>365</v>
       </c>
@@ -5937,7 +5620,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="299">
       <c r="A299" t="s">
         <v>366</v>
       </c>
@@ -5951,7 +5634,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="300">
       <c r="A300" t="s">
         <v>367</v>
       </c>
@@ -5965,7 +5648,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="301">
       <c r="A301" t="s">
         <v>368</v>
       </c>
@@ -5979,7 +5662,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="302">
       <c r="A302" t="s">
         <v>369</v>
       </c>
@@ -5993,7 +5676,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="303">
       <c r="A303" t="s">
         <v>370</v>
       </c>
@@ -6007,7 +5690,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="304">
       <c r="A304" t="s">
         <v>371</v>
       </c>
@@ -6021,7 +5704,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="305">
       <c r="A305" t="s">
         <v>372</v>
       </c>
@@ -6035,7 +5718,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="306">
       <c r="A306" t="s">
         <v>373</v>
       </c>
@@ -6049,7 +5732,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="307">
       <c r="A307" t="s">
         <v>373</v>
       </c>
@@ -6063,7 +5746,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="308">
       <c r="A308" t="s">
         <v>374</v>
       </c>
@@ -6077,7 +5760,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="309">
       <c r="A309" t="s">
         <v>374</v>
       </c>
@@ -6091,7 +5774,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="310">
       <c r="A310" t="s">
         <v>375</v>
       </c>
@@ -6105,7 +5788,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="311">
       <c r="A311" t="s">
         <v>376</v>
       </c>
@@ -6119,7 +5802,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="312">
       <c r="A312" t="s">
         <v>377</v>
       </c>
@@ -6133,7 +5816,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="313">
       <c r="A313" t="s">
         <v>378</v>
       </c>
@@ -6147,7 +5830,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="314">
       <c r="A314" t="s">
         <v>379</v>
       </c>
@@ -6161,7 +5844,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="315">
       <c r="A315" t="s">
         <v>380</v>
       </c>
@@ -6175,7 +5858,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="316">
       <c r="A316" t="s">
         <v>381</v>
       </c>
@@ -6189,7 +5872,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="317">
       <c r="A317" t="s">
         <v>382</v>
       </c>
@@ -6203,7 +5886,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="318">
       <c r="A318" t="s">
         <v>383</v>
       </c>
@@ -6217,7 +5900,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="319">
       <c r="A319" t="s">
         <v>384</v>
       </c>
@@ -6231,7 +5914,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="320">
       <c r="A320" t="s">
         <v>385</v>
       </c>
@@ -6245,7 +5928,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="321">
       <c r="A321" t="s">
         <v>386</v>
       </c>
@@ -6259,7 +5942,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="322">
       <c r="A322" t="s">
         <v>387</v>
       </c>
@@ -6273,7 +5956,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="323">
       <c r="A323" t="s">
         <v>388</v>
       </c>
@@ -6287,7 +5970,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="324">
       <c r="A324" t="s">
         <v>389</v>
       </c>
@@ -6301,7 +5984,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="325">
       <c r="A325" t="s">
         <v>390</v>
       </c>
@@ -6315,7 +5998,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="326">
       <c r="A326" t="s">
         <v>391</v>
       </c>
@@ -6329,7 +6012,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="327">
       <c r="A327" t="s">
         <v>392</v>
       </c>
@@ -6343,7 +6026,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="328">
       <c r="A328" t="s">
         <v>393</v>
       </c>
@@ -6357,7 +6040,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="329">
       <c r="A329" t="s">
         <v>394</v>
       </c>
@@ -6371,7 +6054,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="330">
       <c r="A330" t="s">
         <v>395</v>
       </c>
@@ -6385,7 +6068,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="331">
       <c r="A331" t="s">
         <v>396</v>
       </c>
@@ -6399,7 +6082,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="332">
       <c r="A332" t="s">
         <v>397</v>
       </c>
@@ -6413,7 +6096,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="333">
       <c r="A333" t="s">
         <v>398</v>
       </c>
@@ -6427,7 +6110,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="334">
       <c r="A334" t="s">
         <v>399</v>
       </c>
@@ -6441,7 +6124,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="335">
       <c r="A335" t="s">
         <v>400</v>
       </c>
@@ -6455,7 +6138,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="336">
       <c r="A336" t="s">
         <v>401</v>
       </c>
@@ -6469,7 +6152,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="337">
       <c r="A337" t="s">
         <v>402</v>
       </c>
@@ -6483,7 +6166,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="338">
       <c r="A338" t="s">
         <v>403</v>
       </c>
@@ -6497,7 +6180,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="339">
       <c r="A339" t="s">
         <v>404</v>
       </c>
@@ -6511,7 +6194,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="340">
       <c r="A340" t="s">
         <v>405</v>
       </c>
@@ -6525,7 +6208,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="341">
       <c r="A341" t="s">
         <v>406</v>
       </c>
@@ -6539,7 +6222,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="342">
       <c r="A342" t="s">
         <v>407</v>
       </c>
@@ -6553,7 +6236,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="343">
       <c r="A343" t="s">
         <v>408</v>
       </c>
@@ -6567,7 +6250,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="344">
       <c r="A344" t="s">
         <v>409</v>
       </c>
@@ -6581,7 +6264,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="345">
       <c r="A345" t="s">
         <v>410</v>
       </c>
@@ -6595,7 +6278,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="346">
       <c r="A346" t="s">
         <v>411</v>
       </c>
@@ -6609,7 +6292,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="347">
       <c r="A347" t="s">
         <v>413</v>
       </c>
@@ -6623,7 +6306,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="348">
       <c r="A348" t="s">
         <v>413</v>
       </c>
@@ -6637,7 +6320,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="349">
       <c r="A349" t="s">
         <v>414</v>
       </c>
@@ -6651,7 +6334,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="350">
       <c r="A350" t="s">
         <v>416</v>
       </c>
@@ -6665,7 +6348,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="351">
       <c r="A351" t="s">
         <v>417</v>
       </c>
@@ -6679,7 +6362,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="352">
       <c r="A352" t="s">
         <v>418</v>
       </c>
@@ -6693,7 +6376,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="353">
       <c r="A353" t="s">
         <v>419</v>
       </c>
@@ -6707,7 +6390,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="354">
       <c r="A354" t="s">
         <v>420</v>
       </c>
@@ -6721,7 +6404,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="355">
       <c r="A355" t="s">
         <v>420</v>
       </c>
@@ -6735,7 +6418,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="356">
       <c r="A356" t="s">
         <v>421</v>
       </c>
@@ -6749,7 +6432,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="357">
       <c r="A357" t="s">
         <v>422</v>
       </c>
@@ -6763,7 +6446,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="358">
       <c r="A358" t="s">
         <v>423</v>
       </c>
@@ -6777,7 +6460,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="359">
       <c r="A359" t="s">
         <v>424</v>
       </c>
@@ -6791,7 +6474,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="360">
       <c r="A360" t="s">
         <v>425</v>
       </c>
@@ -6805,7 +6488,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="361">
       <c r="A361" t="s">
         <v>427</v>
       </c>
@@ -6819,7 +6502,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="362">
       <c r="A362" t="s">
         <v>428</v>
       </c>
@@ -6833,7 +6516,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="363">
       <c r="A363" t="s">
         <v>429</v>
       </c>
@@ -6847,7 +6530,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="364">
       <c r="A364" t="s">
         <v>430</v>
       </c>
@@ -6861,7 +6544,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="365">
       <c r="A365" t="s">
         <v>431</v>
       </c>
@@ -6875,7 +6558,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="366">
       <c r="A366" t="s">
         <v>432</v>
       </c>
@@ -6889,7 +6572,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="367">
       <c r="A367" t="s">
         <v>433</v>
       </c>
@@ -6903,7 +6586,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="368">
       <c r="A368" t="s">
         <v>434</v>
       </c>
@@ -6917,7 +6600,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="369">
       <c r="A369" t="s">
         <v>435</v>
       </c>
@@ -6931,7 +6614,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="370">
       <c r="A370" t="s">
         <v>436</v>
       </c>
@@ -6945,7 +6628,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="371">
       <c r="A371" t="s">
         <v>437</v>
       </c>
@@ -6959,7 +6642,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="372">
       <c r="A372" t="s">
         <v>438</v>
       </c>
@@ -6973,7 +6656,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="373">
       <c r="A373" t="s">
         <v>439</v>
       </c>
@@ -6987,7 +6670,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="374">
       <c r="A374" t="s">
         <v>440</v>
       </c>
@@ -7001,7 +6684,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="375">
       <c r="A375" t="s">
         <v>441</v>
       </c>
@@ -7015,7 +6698,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="376">
       <c r="A376" t="s">
         <v>442</v>
       </c>
@@ -7029,7 +6712,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="377">
       <c r="A377" t="s">
         <v>443</v>
       </c>
@@ -7043,7 +6726,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="378">
       <c r="A378" t="s">
         <v>443</v>
       </c>
@@ -7057,7 +6740,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="379">
       <c r="A379" t="s">
         <v>444</v>
       </c>
@@ -7071,7 +6754,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="380">
       <c r="A380" t="s">
         <v>445</v>
       </c>
@@ -7085,7 +6768,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="381">
       <c r="A381" t="s">
         <v>446</v>
       </c>
@@ -7099,7 +6782,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="382">
       <c r="A382" t="s">
         <v>447</v>
       </c>
@@ -7113,7 +6796,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="383">
       <c r="A383" t="s">
         <v>448</v>
       </c>
@@ -7127,7 +6810,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="384">
       <c r="A384" t="s">
         <v>449</v>
       </c>
@@ -7141,7 +6824,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="385">
       <c r="A385" t="s">
         <v>450</v>
       </c>
@@ -7155,7 +6838,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="386">
       <c r="A386" t="s">
         <v>451</v>
       </c>
@@ -7169,7 +6852,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="387">
       <c r="A387" t="s">
         <v>452</v>
       </c>
@@ -7183,7 +6866,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="388">
       <c r="A388" t="s">
         <v>453</v>
       </c>
@@ -7197,7 +6880,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="389">
       <c r="A389" t="s">
         <v>454</v>
       </c>
@@ -7211,7 +6894,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="390">
       <c r="A390" t="s">
         <v>455</v>
       </c>
@@ -7225,7 +6908,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="391">
       <c r="A391" t="s">
         <v>456</v>
       </c>
@@ -7239,7 +6922,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="392">
       <c r="A392" t="s">
         <v>457</v>
       </c>
@@ -7253,7 +6936,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="393">
       <c r="A393" t="s">
         <v>459</v>
       </c>
@@ -7267,7 +6950,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="394">
       <c r="A394" t="s">
         <v>460</v>
       </c>
@@ -7281,7 +6964,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="395">
       <c r="A395" t="s">
         <v>461</v>
       </c>
@@ -7296,6 +6979,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>